--- a/data/transcriptions/IMG_2024_03_19_12_01_03_313.xlsx
+++ b/data/transcriptions/IMG_2024_03_19_12_01_03_313.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\GitHub\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975584D7-A6ED-DF42-A79B-47167BD51706}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="11020" yWindow="1020" windowWidth="20040" windowHeight="13180" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F6329581-67FE-D446-9D65-3B6FA85C28B6}</author>
+    <author>tc={E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}</author>
   </authors>
   <commentList>
     <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
@@ -49,12 +50,20 @@
     Actif-passif=restant</t>
       </text>
     </comment>
+    <comment ref="K8" authorId="1" shapeId="0" xr:uid="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should be 1724 but written 1723</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Nom.</t>
   </si>
@@ -158,15 +167,9 @@
     <t>Adolphine</t>
   </si>
   <si>
-    <t>Vampée</t>
-  </si>
-  <si>
     <t>Frédéric</t>
   </si>
   <si>
-    <t>Delaby</t>
-  </si>
-  <si>
     <t>Joachim Joseph</t>
   </si>
   <si>
@@ -197,21 +200,12 @@
     <t>24 janvier 1920</t>
   </si>
   <si>
-    <t>Arrété le vingt quatre juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrété le vingt cinq juin 1921 servais</t>
-  </si>
-  <si>
     <t>Arrété le vingt six juin 1921 dimanche servais</t>
   </si>
   <si>
     <t>vingt sept</t>
   </si>
   <si>
-    <t>Arrété le vingt sept juin 1921 servais</t>
-  </si>
-  <si>
     <t>vingt huit</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Devreux</t>
   </si>
   <si>
-    <t>Seolas</t>
-  </si>
-  <si>
     <t>Defalque</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
   </si>
   <si>
     <t>Greis Aurelie &amp; autres</t>
-  </si>
-  <si>
-    <t>Vampée Ernest &amp; autres</t>
   </si>
   <si>
     <t>Huet Jules &amp; Léon</t>
@@ -282,9 +270,6 @@
     </r>
   </si>
   <si>
-    <t>Seolas Jules Jh &amp; autres</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Defalque </t>
     </r>
@@ -329,12 +314,45 @@
   <si>
     <t>Wauthier-Braine</t>
   </si>
+  <si>
+    <t>Arrété le vingt cinq juin 1921</t>
+  </si>
+  <si>
+    <t>servais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrété le vingt quatre juin 1921 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrété le vingt sept juin 1921 </t>
+  </si>
+  <si>
+    <t>Vanpée</t>
+  </si>
+  <si>
+    <t>Delabij</t>
+  </si>
+  <si>
+    <t>Scolas</t>
+  </si>
+  <si>
+    <t>Jean gte</t>
+  </si>
+  <si>
+    <t>Scolas Jules Jh &amp; autres</t>
+  </si>
+  <si>
+    <t>Jus.. Rosenè Marie</t>
+  </si>
+  <si>
+    <t>Vanpée Ernest &amp; autres</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,19 +380,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -527,51 +545,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,6 +977,9 @@
   <threadedComment ref="K2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
     <text>Actif-passif=restant</text>
   </threadedComment>
+  <threadedComment ref="K8" dT="2024-06-21T08:08:48.26" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
+    <text>Should be 1724 but written 1723</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -922,675 +987,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="174" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
-    <col min="8" max="8" width="19.296875" customWidth="1"/>
+    <col min="1" max="5" width="11.1640625" style="7"/>
+    <col min="6" max="6" width="11.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="9" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:21" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13">
         <v>1921</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>150</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18150</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1405</v>
+      </c>
+      <c r="K4" s="20">
+        <v>16745</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="7">
+        <v>19</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>151</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4840</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4840</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="7">
+        <v>189</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="7">
+        <v>199</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>152</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15">
+        <v>7122</v>
+      </c>
+      <c r="J7" s="7">
+        <v>594</v>
+      </c>
+      <c r="K7" s="20">
+        <v>6528</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>153</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2250</v>
+      </c>
+      <c r="J8" s="7">
+        <v>526</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1723</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7">
+        <v>321</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>154</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7">
+        <v>150723</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5369</v>
+      </c>
+      <c r="K13" s="13">
+        <v>145354</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="13">
+        <v>289</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>155</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2465</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2465</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>156</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2485</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2485</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>157</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>1840</v>
-      </c>
-      <c r="J4">
-        <v>1409</v>
-      </c>
-      <c r="K4" s="19">
-        <v>26469</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4">
-        <v>19</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5">
-        <v>4840</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4840</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5">
-        <v>189</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6">
-        <v>199</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>152</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="13">
-        <v>4122</v>
-      </c>
-      <c r="J7">
-        <v>594</v>
-      </c>
-      <c r="K7" s="19">
-        <v>6928</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>153</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8">
-        <v>2290</v>
-      </c>
-      <c r="J8">
-        <v>526</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1428</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10">
-        <v>321</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="M10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>154</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>150423</v>
-      </c>
-      <c r="J13">
-        <v>1369</v>
-      </c>
-      <c r="K13" s="1">
-        <v>149394</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="1">
-        <v>289</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>155</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="25" t="s">
+      <c r="H17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14">
-        <v>2469</v>
-      </c>
-      <c r="K14">
-        <v>2469</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>156</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15">
-        <v>2481</v>
-      </c>
-      <c r="K15">
-        <v>2481</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>157</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="7">
+        <v>14245</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1326</v>
+      </c>
+      <c r="K17" s="13">
+        <v>12919</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I17">
-        <v>14249</v>
-      </c>
-      <c r="J17">
-        <v>1326</v>
-      </c>
-      <c r="K17" s="1">
-        <v>12919</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" s="19">
+      <c r="S17" s="20">
         <v>298</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="7"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="N18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
